--- a/RapiseTestSamples/Sub_Test_1/Scenario_GetDoctorById_200/Main.rvl.xlsx
+++ b/RapiseTestSamples/Sub_Test_1/Scenario_GetDoctorById_200/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="152">
   <si>
     <t>Flow</t>
   </si>
@@ -449,6 +449,27 @@
   </si>
   <si>
     <t>975695336809</t>
+  </si>
+  <si>
+    <t>990836040348</t>
+  </si>
+  <si>
+    <t>975695336009</t>
+  </si>
+  <si>
+    <t>990896040348</t>
+  </si>
+  <si>
+    <t>970695336809</t>
+  </si>
+  <si>
+    <t>990596040348</t>
+  </si>
+  <si>
+    <t>979695336809</t>
+  </si>
+  <si>
+    <t>And check for first name</t>
   </si>
 </sst>
 </file>
@@ -469,7 +490,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="607">
+  <borders count="617">
     <border>
       <left/>
       <right/>
@@ -1083,11 +1104,21 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="607">
+  <cellXfs count="617">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -1695,6 +1726,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="604" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="605" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="606" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="607" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="608" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="609" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="610" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="611" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="612" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="613" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="614" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="615" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="616" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1704,7 +1745,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H57"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.34375" customWidth="true"/>
@@ -2014,375 +2055,395 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="A21" s="614"/>
     </row>
     <row r="22">
-      <c r="A22" s="188"/>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="A22" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="42" t="s">
         <v>37</v>
       </c>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
     </row>
     <row r="23">
-      <c r="A23" s="187"/>
+      <c r="A23" s="188"/>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="187"/>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
         <v>13</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>38</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>39</v>
-      </c>
-      <c r="F23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="183"/>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" t="s">
-        <v>24</v>
       </c>
       <c r="F24" t="s">
         <v>25</v>
       </c>
       <c r="G24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="183"/>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="182"/>
-    </row>
     <row r="26">
-      <c r="A26" s="181"/>
-      <c r="B26" t="s">
+      <c r="A26" s="182"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="181"/>
+      <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>28</v>
-      </c>
-      <c r="F26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="180"/>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" t="s">
-        <v>29</v>
       </c>
       <c r="F27" t="s">
         <v>25</v>
       </c>
       <c r="G27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="180"/>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="179"/>
-    </row>
     <row r="29">
-      <c r="A29" s="577"/>
-      <c r="B29" t="s">
+      <c r="A29" s="179"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="577"/>
+      <c r="B30" t="s">
         <v>23</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>65</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>33</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="603"/>
-    </row>
     <row r="31">
-      <c r="A31" s="606"/>
-      <c r="B31" t="s">
+      <c r="A31" s="615"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="603" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="606"/>
+      <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D33" t="s">
         <v>30</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E33" t="s">
         <v>10</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="605"/>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="604"/>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" t="s">
-        <v>35</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="576"/>
+      <c r="A34" s="605"/>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="575"/>
+      <c r="A35" s="604"/>
       <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
       </c>
       <c r="G35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="616"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="576" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="574"/>
-      <c r="B36" t="s">
+    <row r="38">
+      <c r="A38" s="575"/>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="574"/>
+      <c r="B39" t="s">
         <v>16</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E39" t="s">
         <v>113</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F39" t="s">
         <v>33</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G39" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="178"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="56"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="592" t="s">
+    <row r="40">
+      <c r="A40" s="49"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="56"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="592" t="s">
         <v>56</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="57"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="64"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="65"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="72"/>
-    </row>
     <row r="42">
-      <c r="A42" s="73"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="80"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="64"/>
     </row>
     <row r="43">
-      <c r="A43" s="81"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="88"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="72"/>
     </row>
     <row r="44">
-      <c r="A44" s="89"/>
-      <c r="B44" s="90"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="96"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="80"/>
     </row>
     <row r="45">
-      <c r="A45" s="97"/>
-      <c r="B45" s="98"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="104"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="88"/>
     </row>
     <row r="46">
-      <c r="A46" s="105"/>
-      <c r="B46" s="106"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="111"/>
-      <c r="H46" s="112"/>
+      <c r="A46" s="89"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="96"/>
     </row>
     <row r="47">
-      <c r="A47" s="113"/>
-      <c r="B47" s="114"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="119"/>
-      <c r="H47" s="120"/>
+      <c r="A47" s="97"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="104"/>
     </row>
     <row r="48">
-      <c r="A48" s="121"/>
-      <c r="B48" s="122"/>
-      <c r="C48" s="123"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="125"/>
-      <c r="F48" s="126"/>
-      <c r="G48" s="127"/>
-      <c r="H48" s="128"/>
+      <c r="A48" s="105"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="109"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="111"/>
+      <c r="H48" s="112"/>
     </row>
     <row r="49">
-      <c r="A49" s="129"/>
-      <c r="B49" s="130"/>
-      <c r="C49" s="131"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="134"/>
-      <c r="G49" s="135"/>
-      <c r="H49" s="136"/>
+      <c r="A49" s="113"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="118"/>
+      <c r="G49" s="119"/>
+      <c r="H49" s="120"/>
     </row>
     <row r="50">
-      <c r="A50" s="137"/>
-      <c r="B50" s="138"/>
-      <c r="C50" s="139"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="141"/>
-      <c r="F50" s="142"/>
-      <c r="G50" s="143"/>
-      <c r="H50" s="144"/>
+      <c r="A50" s="121"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="123"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="126"/>
+      <c r="G50" s="127"/>
+      <c r="H50" s="128"/>
     </row>
     <row r="51">
-      <c r="A51" s="145"/>
-      <c r="B51" s="146"/>
-      <c r="C51" s="147"/>
-      <c r="D51" s="148"/>
-      <c r="E51" s="149"/>
-      <c r="F51" s="150"/>
-      <c r="G51" s="151"/>
-      <c r="H51" s="152"/>
+      <c r="A51" s="129"/>
+      <c r="B51" s="130"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="134"/>
+      <c r="G51" s="135"/>
+      <c r="H51" s="136"/>
     </row>
     <row r="52">
-      <c r="A52" s="153"/>
-      <c r="B52" s="154"/>
-      <c r="C52" s="155"/>
-      <c r="D52" s="156"/>
-      <c r="E52" s="157"/>
-      <c r="F52" s="158"/>
-      <c r="G52" s="159"/>
-      <c r="H52" s="160"/>
-    </row>
-    <row r="55">
-      <c r="G55" t="s">
+      <c r="A52" s="137"/>
+      <c r="B52" s="138"/>
+      <c r="C52" s="139"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="141"/>
+      <c r="F52" s="142"/>
+      <c r="G52" s="143"/>
+      <c r="H52" s="144"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="145"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="147"/>
+      <c r="D53" s="148"/>
+      <c r="E53" s="149"/>
+      <c r="F53" s="150"/>
+      <c r="G53" s="151"/>
+      <c r="H53" s="152"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="153"/>
+      <c r="B54" s="154"/>
+      <c r="C54" s="155"/>
+      <c r="D54" s="156"/>
+      <c r="E54" s="157"/>
+      <c r="F54" s="158"/>
+      <c r="G54" s="159"/>
+      <c r="H54" s="160"/>
+    </row>
+    <row r="57">
+      <c r="G57" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2392,7 +2453,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H107"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.34375" customWidth="true"/>
@@ -2491,7 +2552,7 @@
         <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
         <v>65</v>
@@ -2514,7 +2575,7 @@
         <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F5" t="s">
         <v>67</v>
@@ -2698,440 +2759,425 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="494"/>
+      <c r="A19" s="608"/>
     </row>
     <row r="20">
-      <c r="A20" s="472"/>
+      <c r="A20" s="494" t="s">
+        <v>81</v>
+      </c>
       <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="471"/>
+      <c r="A21" s="472"/>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="471"/>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
         <v>13</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>14</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="470"/>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
       </c>
       <c r="F22" t="s">
         <v>79</v>
       </c>
       <c r="G22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="469"/>
+      <c r="A23" s="470"/>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F23" t="s">
         <v>79</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="468"/>
+      <c r="A24" s="469"/>
       <c r="B24" t="s">
         <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
         <v>79</v>
       </c>
       <c r="G24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="468"/>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="467"/>
-      <c r="B25" t="s">
+    <row r="26">
+      <c r="A26" s="467"/>
+      <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>24</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>25</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="466"/>
-    </row>
     <row r="27">
-      <c r="A27" s="465"/>
-      <c r="B27" t="s">
+      <c r="A27" s="466"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="465"/>
+      <c r="B28" t="s">
         <v>3</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>13</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>28</v>
-      </c>
-      <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="464"/>
-      <c r="B28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" t="s">
-        <v>29</v>
       </c>
       <c r="F28" t="s">
         <v>25</v>
       </c>
       <c r="G28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="464"/>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="463"/>
-    </row>
     <row r="30">
-      <c r="A30" s="500" t="s">
+      <c r="A30" s="463"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="500" t="s">
         <v>84</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
         <v>85</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="501" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="32">
+      <c r="A32" s="501" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
         <v>86</v>
       </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
         <v>87</v>
       </c>
-      <c r="E31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="502" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="502" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
         <v>16</v>
       </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
         <v>88</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>33</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="503" t="s">
+    <row r="34">
+      <c r="A34" s="503" t="s">
         <v>81</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>89</v>
       </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="598"/>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="610" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="598"/>
+      <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>8</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>30</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E36" t="s">
         <v>10</v>
-      </c>
-      <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="600"/>
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="601"/>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" t="s">
-        <v>35</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="597"/>
+      <c r="A37" s="600"/>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="523" t="s">
-        <v>7</v>
-      </c>
+      <c r="A38" s="601"/>
       <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>117</v>
-      </c>
-      <c r="H38" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="524" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="A39" s="597"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="611" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="523" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>151</v>
+      </c>
+      <c r="H41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="524" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
         <v>16</v>
       </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
         <v>32</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F42" t="s">
         <v>79</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G42" t="s">
         <v>69</v>
       </c>
-      <c r="H39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="525" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="H42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="525" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
         <v>16</v>
       </c>
-      <c r="C40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
         <v>35</v>
-      </c>
-      <c r="F40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" t="s">
-        <v>118</v>
-      </c>
-      <c r="H40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="528"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="516"/>
-      <c r="B42" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="515"/>
-      <c r="B43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" t="s">
-        <v>65</v>
       </c>
       <c r="F43" t="s">
         <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>108</v>
+        <v>118</v>
+      </c>
+      <c r="H43" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="529"/>
+      <c r="A44" s="528"/>
     </row>
     <row r="45">
-      <c r="A45" s="520"/>
+      <c r="A45" s="516"/>
       <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G45" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="521"/>
+      <c r="A46" s="515"/>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="F46" t="s">
         <v>33</v>
@@ -3141,650 +3187,694 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="517"/>
-      <c r="H47" t="s">
-        <v>7</v>
-      </c>
+      <c r="A47" s="529"/>
     </row>
     <row r="48">
-      <c r="A48" s="505" t="s">
-        <v>56</v>
+      <c r="A48" s="612" t="s">
+        <v>81</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" t="s">
-        <v>7</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="531"/>
+      <c r="A49" s="520"/>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="547" t="s">
-        <v>84</v>
-      </c>
+      <c r="A50" s="521"/>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="E50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="517"/>
+      <c r="H51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="505" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="531"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="547" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" t="s">
         <v>85</v>
-      </c>
-      <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="546"/>
-      <c r="B51" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="545"/>
-      <c r="B52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" t="s">
-        <v>88</v>
-      </c>
-      <c r="F52" t="s">
-        <v>33</v>
-      </c>
-      <c r="G52" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="544" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="543"/>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="542"/>
+      <c r="A55" s="546"/>
       <c r="B55" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" t="s">
-        <v>79</v>
-      </c>
-      <c r="G55" t="s">
-        <v>69</v>
+        <v>86</v>
+      </c>
+      <c r="D55" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="541"/>
+      <c r="A56" s="545"/>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="F56" t="s">
         <v>33</v>
       </c>
       <c r="G56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="544" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="543"/>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="542"/>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" t="s">
+        <v>79</v>
+      </c>
+      <c r="G59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="541"/>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="540"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="539"/>
-      <c r="B58" t="s">
+    <row r="61">
+      <c r="A61" s="540"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="539"/>
+      <c r="B62" t="s">
         <v>23</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E62" t="s">
         <v>135</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F62" t="s">
         <v>25</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G62" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="538"/>
-      <c r="B59" t="s">
+    <row r="63">
+      <c r="A63" s="538"/>
+      <c r="B63" t="s">
         <v>23</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E63" t="s">
         <v>65</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F63" t="s">
         <v>33</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G63" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="537"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="536"/>
-      <c r="B61" t="s">
+    <row r="64">
+      <c r="A64" s="537"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="536"/>
+      <c r="B65" t="s">
         <v>3</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C65" t="s">
         <v>8</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D65" t="s">
         <v>112</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E65" t="s">
         <v>10</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G65" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="535"/>
-      <c r="B62" t="s">
+    <row r="66">
+      <c r="A66" s="535"/>
+      <c r="B66" t="s">
         <v>16</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E66" t="s">
         <v>113</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F66" t="s">
         <v>33</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G66" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="534"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="533" t="s">
+    <row r="67">
+      <c r="A67" s="534"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="533" t="s">
         <v>56</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B68" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="532"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="462"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="461" t="s">
+    <row r="69">
+      <c r="A69" s="462"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="461" t="s">
         <v>81</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B70" t="s">
         <v>3</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C70" t="s">
         <v>8</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D70" t="s">
         <v>30</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E70" t="s">
         <v>10</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G70" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="460" t="s">
+    <row r="71">
+      <c r="A71" s="460" t="s">
         <v>81</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B71" t="s">
         <v>16</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E71" t="s">
         <v>32</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F71" t="s">
         <v>33</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G71" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="459" t="s">
-        <v>81</v>
-      </c>
-      <c r="B69" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" t="s">
-        <v>35</v>
-      </c>
-      <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="510"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="513" t="s">
-        <v>81</v>
-      </c>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" t="s">
-        <v>30</v>
-      </c>
-      <c r="E71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s">
-        <v>99</v>
-      </c>
-    </row>
     <row r="72">
-      <c r="A72" s="512" t="s">
+      <c r="A72" s="459" t="s">
         <v>81</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
       </c>
       <c r="E72" t="s">
+        <v>35</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="510"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="513" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="512" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" t="s">
         <v>32</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F75" t="s">
         <v>79</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G75" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="511" t="s">
+    <row r="76">
+      <c r="A76" s="511" t="s">
         <v>81</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B76" t="s">
         <v>16</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E76" t="s">
         <v>35</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F76" t="s">
         <v>33</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G76" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="219"/>
-      <c r="B74" s="220"/>
-      <c r="C74" s="221"/>
-      <c r="D74" s="222"/>
-      <c r="E74" s="223"/>
-      <c r="F74" s="224"/>
-      <c r="G74" s="225"/>
-      <c r="H74" s="226"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="497" t="s">
+    <row r="77">
+      <c r="A77" s="219"/>
+      <c r="B77" s="220"/>
+      <c r="C77" s="221"/>
+      <c r="D77" s="222"/>
+      <c r="E77" s="223"/>
+      <c r="F77" s="224"/>
+      <c r="G77" s="225"/>
+      <c r="H77" s="226"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="497" t="s">
         <v>56</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B78" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="227"/>
-      <c r="B76" s="228"/>
-      <c r="C76" s="229"/>
-      <c r="D76" s="230"/>
-      <c r="E76" s="231"/>
-      <c r="F76" s="232"/>
-      <c r="G76" s="233"/>
-      <c r="H76" s="234"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="235"/>
-      <c r="B77" s="236"/>
-      <c r="C77" s="237"/>
-      <c r="D77" s="238"/>
-      <c r="E77" s="239"/>
-      <c r="F77" s="240"/>
-      <c r="G77" s="241"/>
-      <c r="H77" s="242"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="243"/>
-      <c r="B78" s="244"/>
-      <c r="C78" s="245"/>
-      <c r="D78" s="246"/>
-      <c r="E78" s="247"/>
-      <c r="F78" s="248"/>
-      <c r="G78" s="249"/>
-      <c r="H78" s="250"/>
-    </row>
     <row r="79">
-      <c r="A79" s="251"/>
-      <c r="B79" s="252"/>
-      <c r="C79" s="253"/>
-      <c r="D79" s="254"/>
-      <c r="E79" s="255"/>
-      <c r="F79" s="256"/>
-      <c r="G79" s="257"/>
-      <c r="H79" s="258"/>
+      <c r="A79" s="227"/>
+      <c r="B79" s="228"/>
+      <c r="C79" s="229"/>
+      <c r="D79" s="230"/>
+      <c r="E79" s="231"/>
+      <c r="F79" s="232"/>
+      <c r="G79" s="233"/>
+      <c r="H79" s="234"/>
     </row>
     <row r="80">
-      <c r="A80" s="259"/>
-      <c r="B80" s="260"/>
-      <c r="C80" s="261"/>
-      <c r="D80" s="262"/>
-      <c r="E80" s="263"/>
-      <c r="F80" s="264"/>
-      <c r="G80" s="265"/>
-      <c r="H80" s="266"/>
+      <c r="A80" s="235"/>
+      <c r="B80" s="236"/>
+      <c r="C80" s="237"/>
+      <c r="D80" s="238"/>
+      <c r="E80" s="239"/>
+      <c r="F80" s="240"/>
+      <c r="G80" s="241"/>
+      <c r="H80" s="242"/>
     </row>
     <row r="81">
-      <c r="A81" s="267"/>
-      <c r="B81" s="268"/>
-      <c r="C81" s="269"/>
-      <c r="D81" s="270"/>
-      <c r="E81" s="271"/>
-      <c r="F81" s="272"/>
-      <c r="G81" s="273"/>
-      <c r="H81" s="274"/>
+      <c r="A81" s="243"/>
+      <c r="B81" s="244"/>
+      <c r="C81" s="245"/>
+      <c r="D81" s="246"/>
+      <c r="E81" s="247"/>
+      <c r="F81" s="248"/>
+      <c r="G81" s="249"/>
+      <c r="H81" s="250"/>
     </row>
     <row r="82">
-      <c r="A82" s="275"/>
-      <c r="B82" s="276"/>
-      <c r="C82" s="277"/>
-      <c r="D82" s="278"/>
-      <c r="E82" s="279"/>
-      <c r="F82" s="280"/>
-      <c r="G82" s="281"/>
-      <c r="H82" s="282"/>
+      <c r="A82" s="251"/>
+      <c r="B82" s="252"/>
+      <c r="C82" s="253"/>
+      <c r="D82" s="254"/>
+      <c r="E82" s="255"/>
+      <c r="F82" s="256"/>
+      <c r="G82" s="257"/>
+      <c r="H82" s="258"/>
     </row>
     <row r="83">
-      <c r="A83" s="283"/>
-      <c r="B83" s="284"/>
-      <c r="C83" s="285"/>
-      <c r="D83" s="286"/>
-      <c r="E83" s="287"/>
-      <c r="F83" s="288"/>
-      <c r="G83" s="289"/>
-      <c r="H83" s="290"/>
+      <c r="A83" s="259"/>
+      <c r="B83" s="260"/>
+      <c r="C83" s="261"/>
+      <c r="D83" s="262"/>
+      <c r="E83" s="263"/>
+      <c r="F83" s="264"/>
+      <c r="G83" s="265"/>
+      <c r="H83" s="266"/>
     </row>
     <row r="84">
-      <c r="A84" s="291"/>
-      <c r="B84" s="292"/>
-      <c r="C84" s="293"/>
-      <c r="D84" s="294"/>
-      <c r="E84" s="295"/>
-      <c r="F84" s="296"/>
-      <c r="G84" s="297"/>
-      <c r="H84" s="298"/>
+      <c r="A84" s="267"/>
+      <c r="B84" s="268"/>
+      <c r="C84" s="269"/>
+      <c r="D84" s="270"/>
+      <c r="E84" s="271"/>
+      <c r="F84" s="272"/>
+      <c r="G84" s="273"/>
+      <c r="H84" s="274"/>
     </row>
     <row r="85">
-      <c r="A85" s="299"/>
-      <c r="B85" s="300"/>
-      <c r="C85" s="301"/>
-      <c r="D85" s="302"/>
-      <c r="E85" s="303"/>
-      <c r="F85" s="304"/>
-      <c r="G85" s="305"/>
-      <c r="H85" s="306"/>
+      <c r="A85" s="275"/>
+      <c r="B85" s="276"/>
+      <c r="C85" s="277"/>
+      <c r="D85" s="278"/>
+      <c r="E85" s="279"/>
+      <c r="F85" s="280"/>
+      <c r="G85" s="281"/>
+      <c r="H85" s="282"/>
     </row>
     <row r="86">
-      <c r="A86" s="307"/>
-      <c r="B86" s="308"/>
-      <c r="C86" s="309"/>
-      <c r="D86" s="310"/>
-      <c r="E86" s="311"/>
-      <c r="F86" s="312"/>
-      <c r="G86" s="313"/>
-      <c r="H86" s="314"/>
+      <c r="A86" s="283"/>
+      <c r="B86" s="284"/>
+      <c r="C86" s="285"/>
+      <c r="D86" s="286"/>
+      <c r="E86" s="287"/>
+      <c r="F86" s="288"/>
+      <c r="G86" s="289"/>
+      <c r="H86" s="290"/>
     </row>
     <row r="87">
-      <c r="A87" s="315"/>
-      <c r="B87" s="316"/>
-      <c r="C87" s="317"/>
-      <c r="D87" s="318"/>
-      <c r="E87" s="319"/>
-      <c r="F87" s="320"/>
-      <c r="G87" s="321"/>
-      <c r="H87" s="322"/>
+      <c r="A87" s="291"/>
+      <c r="B87" s="292"/>
+      <c r="C87" s="293"/>
+      <c r="D87" s="294"/>
+      <c r="E87" s="295"/>
+      <c r="F87" s="296"/>
+      <c r="G87" s="297"/>
+      <c r="H87" s="298"/>
     </row>
     <row r="88">
-      <c r="A88" s="323"/>
-      <c r="B88" s="324"/>
-      <c r="C88" s="325"/>
-      <c r="D88" s="326"/>
-      <c r="E88" s="327"/>
-      <c r="F88" s="328"/>
-      <c r="G88" s="329"/>
-      <c r="H88" s="330"/>
+      <c r="A88" s="299"/>
+      <c r="B88" s="300"/>
+      <c r="C88" s="301"/>
+      <c r="D88" s="302"/>
+      <c r="E88" s="303"/>
+      <c r="F88" s="304"/>
+      <c r="G88" s="305"/>
+      <c r="H88" s="306"/>
     </row>
     <row r="89">
-      <c r="A89" s="331"/>
-      <c r="B89" s="332"/>
-      <c r="C89" s="333"/>
-      <c r="D89" s="334"/>
-      <c r="E89" s="335"/>
-      <c r="F89" s="336"/>
-      <c r="G89" s="337"/>
-      <c r="H89" s="338"/>
+      <c r="A89" s="307"/>
+      <c r="B89" s="308"/>
+      <c r="C89" s="309"/>
+      <c r="D89" s="310"/>
+      <c r="E89" s="311"/>
+      <c r="F89" s="312"/>
+      <c r="G89" s="313"/>
+      <c r="H89" s="314"/>
     </row>
     <row r="90">
-      <c r="A90" s="339"/>
-      <c r="B90" s="340"/>
-      <c r="C90" s="341"/>
-      <c r="D90" s="342"/>
-      <c r="E90" s="343"/>
-      <c r="F90" s="344"/>
-      <c r="G90" s="345"/>
-      <c r="H90" s="346"/>
+      <c r="A90" s="315"/>
+      <c r="B90" s="316"/>
+      <c r="C90" s="317"/>
+      <c r="D90" s="318"/>
+      <c r="E90" s="319"/>
+      <c r="F90" s="320"/>
+      <c r="G90" s="321"/>
+      <c r="H90" s="322"/>
     </row>
     <row r="91">
-      <c r="A91" s="347"/>
-      <c r="B91" s="348"/>
-      <c r="C91" s="349"/>
-      <c r="D91" s="350"/>
-      <c r="E91" s="351"/>
-      <c r="F91" s="352"/>
-      <c r="G91" s="353"/>
-      <c r="H91" s="354"/>
+      <c r="A91" s="323"/>
+      <c r="B91" s="324"/>
+      <c r="C91" s="325"/>
+      <c r="D91" s="326"/>
+      <c r="E91" s="327"/>
+      <c r="F91" s="328"/>
+      <c r="G91" s="329"/>
+      <c r="H91" s="330"/>
     </row>
     <row r="92">
-      <c r="A92" s="355"/>
-      <c r="B92" s="356"/>
-      <c r="C92" s="357"/>
-      <c r="D92" s="358"/>
-      <c r="E92" s="359"/>
-      <c r="F92" s="360"/>
-      <c r="G92" s="361"/>
-      <c r="H92" s="362"/>
+      <c r="A92" s="331"/>
+      <c r="B92" s="332"/>
+      <c r="C92" s="333"/>
+      <c r="D92" s="334"/>
+      <c r="E92" s="335"/>
+      <c r="F92" s="336"/>
+      <c r="G92" s="337"/>
+      <c r="H92" s="338"/>
     </row>
     <row r="93">
-      <c r="A93" s="363"/>
-      <c r="B93" s="364"/>
-      <c r="C93" s="365"/>
-      <c r="D93" s="366"/>
-      <c r="E93" s="367"/>
-      <c r="F93" s="368"/>
-      <c r="G93" s="369"/>
-      <c r="H93" s="370"/>
+      <c r="A93" s="339"/>
+      <c r="B93" s="340"/>
+      <c r="C93" s="341"/>
+      <c r="D93" s="342"/>
+      <c r="E93" s="343"/>
+      <c r="F93" s="344"/>
+      <c r="G93" s="345"/>
+      <c r="H93" s="346"/>
     </row>
     <row r="94">
-      <c r="A94" s="371"/>
-      <c r="B94" s="372"/>
-      <c r="C94" s="373"/>
-      <c r="D94" s="374"/>
-      <c r="E94" s="375"/>
-      <c r="F94" s="376"/>
-      <c r="G94" s="377"/>
-      <c r="H94" s="378"/>
+      <c r="A94" s="347"/>
+      <c r="B94" s="348"/>
+      <c r="C94" s="349"/>
+      <c r="D94" s="350"/>
+      <c r="E94" s="351"/>
+      <c r="F94" s="352"/>
+      <c r="G94" s="353"/>
+      <c r="H94" s="354"/>
     </row>
     <row r="95">
-      <c r="A95" s="379"/>
-      <c r="B95" s="380"/>
-      <c r="C95" s="381"/>
-      <c r="D95" s="382"/>
-      <c r="E95" s="383"/>
-      <c r="F95" s="384"/>
-      <c r="G95" s="385"/>
-      <c r="H95" s="386"/>
+      <c r="A95" s="355"/>
+      <c r="B95" s="356"/>
+      <c r="C95" s="357"/>
+      <c r="D95" s="358"/>
+      <c r="E95" s="359"/>
+      <c r="F95" s="360"/>
+      <c r="G95" s="361"/>
+      <c r="H95" s="362"/>
     </row>
     <row r="96">
-      <c r="A96" s="387"/>
-      <c r="B96" s="388"/>
-      <c r="C96" s="389"/>
-      <c r="D96" s="390"/>
-      <c r="E96" s="391"/>
-      <c r="F96" s="392"/>
-      <c r="G96" s="393"/>
-      <c r="H96" s="394"/>
+      <c r="A96" s="363"/>
+      <c r="B96" s="364"/>
+      <c r="C96" s="365"/>
+      <c r="D96" s="366"/>
+      <c r="E96" s="367"/>
+      <c r="F96" s="368"/>
+      <c r="G96" s="369"/>
+      <c r="H96" s="370"/>
     </row>
     <row r="97">
-      <c r="A97" s="395"/>
-      <c r="B97" s="396"/>
-      <c r="C97" s="397"/>
-      <c r="D97" s="398"/>
-      <c r="E97" s="399"/>
-      <c r="F97" s="400"/>
-      <c r="G97" s="401"/>
-      <c r="H97" s="402"/>
+      <c r="A97" s="371"/>
+      <c r="B97" s="372"/>
+      <c r="C97" s="373"/>
+      <c r="D97" s="374"/>
+      <c r="E97" s="375"/>
+      <c r="F97" s="376"/>
+      <c r="G97" s="377"/>
+      <c r="H97" s="378"/>
     </row>
     <row r="98">
-      <c r="A98" s="403"/>
-      <c r="B98" s="404"/>
-      <c r="C98" s="405"/>
-      <c r="D98" s="406"/>
-      <c r="E98" s="407"/>
-      <c r="F98" s="408"/>
-      <c r="G98" s="409"/>
-      <c r="H98" s="410"/>
+      <c r="A98" s="379"/>
+      <c r="B98" s="380"/>
+      <c r="C98" s="381"/>
+      <c r="D98" s="382"/>
+      <c r="E98" s="383"/>
+      <c r="F98" s="384"/>
+      <c r="G98" s="385"/>
+      <c r="H98" s="386"/>
     </row>
     <row r="99">
-      <c r="A99" s="411"/>
-      <c r="B99" s="412"/>
-      <c r="C99" s="413"/>
-      <c r="D99" s="414"/>
-      <c r="E99" s="415"/>
-      <c r="F99" s="416"/>
-      <c r="G99" s="417"/>
-      <c r="H99" s="418"/>
+      <c r="A99" s="387"/>
+      <c r="B99" s="388"/>
+      <c r="C99" s="389"/>
+      <c r="D99" s="390"/>
+      <c r="E99" s="391"/>
+      <c r="F99" s="392"/>
+      <c r="G99" s="393"/>
+      <c r="H99" s="394"/>
     </row>
     <row r="100">
-      <c r="A100" s="419"/>
-      <c r="B100" s="420"/>
-      <c r="C100" s="421"/>
-      <c r="D100" s="422"/>
-      <c r="E100" s="423"/>
-      <c r="F100" s="424"/>
-      <c r="G100" s="425"/>
-      <c r="H100" s="426"/>
+      <c r="A100" s="395"/>
+      <c r="B100" s="396"/>
+      <c r="C100" s="397"/>
+      <c r="D100" s="398"/>
+      <c r="E100" s="399"/>
+      <c r="F100" s="400"/>
+      <c r="G100" s="401"/>
+      <c r="H100" s="402"/>
     </row>
     <row r="101">
-      <c r="A101" s="427"/>
-      <c r="B101" s="428"/>
-      <c r="C101" s="429"/>
-      <c r="D101" s="430"/>
-      <c r="E101" s="431"/>
-      <c r="F101" s="432"/>
-      <c r="G101" s="433"/>
-      <c r="H101" s="434"/>
+      <c r="A101" s="403"/>
+      <c r="B101" s="404"/>
+      <c r="C101" s="405"/>
+      <c r="D101" s="406"/>
+      <c r="E101" s="407"/>
+      <c r="F101" s="408"/>
+      <c r="G101" s="409"/>
+      <c r="H101" s="410"/>
     </row>
     <row r="102">
-      <c r="A102" s="435"/>
-      <c r="B102" s="436"/>
-      <c r="C102" s="437"/>
-      <c r="D102" s="438"/>
-      <c r="E102" s="439"/>
-      <c r="F102" s="440"/>
-      <c r="G102" s="441"/>
-      <c r="H102" s="442"/>
+      <c r="A102" s="411"/>
+      <c r="B102" s="412"/>
+      <c r="C102" s="413"/>
+      <c r="D102" s="414"/>
+      <c r="E102" s="415"/>
+      <c r="F102" s="416"/>
+      <c r="G102" s="417"/>
+      <c r="H102" s="418"/>
     </row>
     <row r="103">
-      <c r="A103" s="443"/>
-      <c r="B103" s="444"/>
-      <c r="C103" s="445"/>
-      <c r="D103" s="446"/>
-      <c r="E103" s="447"/>
-      <c r="F103" s="448"/>
-      <c r="G103" s="449"/>
-      <c r="H103" s="450"/>
+      <c r="A103" s="419"/>
+      <c r="B103" s="420"/>
+      <c r="C103" s="421"/>
+      <c r="D103" s="422"/>
+      <c r="E103" s="423"/>
+      <c r="F103" s="424"/>
+      <c r="G103" s="425"/>
+      <c r="H103" s="426"/>
     </row>
     <row r="104">
-      <c r="A104" s="451"/>
-      <c r="B104" s="452"/>
-      <c r="C104" s="453"/>
-      <c r="D104" s="454"/>
-      <c r="E104" s="455"/>
-      <c r="F104" s="456"/>
-      <c r="G104" s="457"/>
-      <c r="H104" s="458"/>
+      <c r="A104" s="427"/>
+      <c r="B104" s="428"/>
+      <c r="C104" s="429"/>
+      <c r="D104" s="430"/>
+      <c r="E104" s="431"/>
+      <c r="F104" s="432"/>
+      <c r="G104" s="433"/>
+      <c r="H104" s="434"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="435"/>
+      <c r="B105" s="436"/>
+      <c r="C105" s="437"/>
+      <c r="D105" s="438"/>
+      <c r="E105" s="439"/>
+      <c r="F105" s="440"/>
+      <c r="G105" s="441"/>
+      <c r="H105" s="442"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="443"/>
+      <c r="B106" s="444"/>
+      <c r="C106" s="445"/>
+      <c r="D106" s="446"/>
+      <c r="E106" s="447"/>
+      <c r="F106" s="448"/>
+      <c r="G106" s="449"/>
+      <c r="H106" s="450"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="451"/>
+      <c r="B107" s="452"/>
+      <c r="C107" s="453"/>
+      <c r="D107" s="454"/>
+      <c r="E107" s="455"/>
+      <c r="F107" s="456"/>
+      <c r="G107" s="457"/>
+      <c r="H107" s="458"/>
     </row>
   </sheetData>
 </worksheet>
